--- a/chyo/expressed/annotation_notes.xlsx
+++ b/chyo/expressed/annotation_notes.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cameronstrachan/master/chyo/expressed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2913045-4DDA-1D40-B54E-749903C635D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E339F4-4F30-7242-9F94-1BB5501AEF40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1980" windowWidth="25040" windowHeight="14500" xr2:uid="{3B9C22D3-7193-4D41-991E-8A2C8E120724}"/>
+    <workbookView xWindow="20" yWindow="480" windowWidth="25600" windowHeight="15520" xr2:uid="{3B9C22D3-7193-4D41-991E-8A2C8E120724}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="core processes" sheetId="2" r:id="rId2"/>
+    <sheet name="amino acid metabolism" sheetId="4" r:id="rId2"/>
+    <sheet name="core processes" sheetId="2" r:id="rId3"/>
+    <sheet name="selected annotations" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="297">
   <si>
     <t>gene_num</t>
   </si>
@@ -844,9 +846,6 @@
     <t>Oxidative decarboxylation of 2-oxoacids (pyruvate)</t>
   </si>
   <si>
-    <t>anabolism</t>
-  </si>
-  <si>
     <t>production of aromatic amino acids, conversion of 3-dehydroquinate to 3-dehydroshikimate + H2O</t>
   </si>
   <si>
@@ -898,19 +897,216 @@
     <t>ion transport</t>
   </si>
   <si>
-    <t>removal of 5-formyltetrahydrofolate</t>
-  </si>
-  <si>
     <t>Confers a modal distribution of chain length on the O-antigen component of lipopolysaccharide (LPS)</t>
   </si>
   <si>
     <t>branched amino acid synthesis</t>
   </si>
   <si>
-    <t>formation of dTDP-glucose</t>
-  </si>
-  <si>
     <t>thiamine diphosphate biosynthesis</t>
+  </si>
+  <si>
+    <t>nitrate reduction</t>
+  </si>
+  <si>
+    <t>potential glutamine/glutamate specific uptake systems, or organic acids</t>
+  </si>
+  <si>
+    <t>lysine biosynthesis</t>
+  </si>
+  <si>
+    <t>amino acid biosynthesis</t>
+  </si>
+  <si>
+    <t>regulation</t>
+  </si>
+  <si>
+    <t>removal of 5-formyltetrahydrofolate, folate metabolism</t>
+  </si>
+  <si>
+    <t>rna degradation</t>
+  </si>
+  <si>
+    <t>UDP-galactose to UDP-glucose, LPS synthesis</t>
+  </si>
+  <si>
+    <t>formation of dTDP-glucose, LPS-O antigen biosynthesis</t>
+  </si>
+  <si>
+    <t>LPS synthesis</t>
+  </si>
+  <si>
+    <t>chaperone</t>
+  </si>
+  <si>
+    <t>synthesizes malonyl-CoA from acetyl-CoA, lipid biosynthesis</t>
+  </si>
+  <si>
+    <t> L-arginine from L-ornithine and carbamoyl phosphate</t>
+  </si>
+  <si>
+    <r>
+      <t>exchange </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>dicarboxylates</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> such as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>aspartate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>malate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fumarate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>succinate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>pilus assemnly, trwitching motility</t>
+  </si>
+  <si>
+    <t>natural DNA uptake?</t>
+  </si>
+  <si>
+    <t>pilus assembly, surface binding</t>
+  </si>
+  <si>
+    <t>lipoprotein chaperone</t>
+  </si>
+  <si>
+    <t>L-cystein transport</t>
+  </si>
+  <si>
+    <t>protein folding</t>
+  </si>
+  <si>
+    <t>NAD synthesis</t>
+  </si>
+  <si>
+    <t>core metabolism</t>
+  </si>
+  <si>
+    <t>hydrogen oxidation</t>
+  </si>
+  <si>
+    <t>methionine import</t>
+  </si>
+  <si>
+    <t>amino acid metabolism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation </t>
+  </si>
+  <si>
+    <t>amino acid regulation</t>
+  </si>
+  <si>
+    <t>DNA replication</t>
+  </si>
+  <si>
+    <t>biosynthesis of branched-chain amino acids</t>
+  </si>
+  <si>
+    <t>sulfur metabolism</t>
+  </si>
+  <si>
+    <t>peptide update</t>
+  </si>
+  <si>
+    <t>electron transport? Menaquinone Biosynthesis?</t>
+  </si>
+  <si>
+    <t>cell wall formation</t>
+  </si>
+  <si>
+    <t>Cbb3-type cytochrome c oxidase is the component of the respiratory chain that catalyzes the reduction of oxygen to water</t>
+  </si>
+  <si>
+    <t>respiration</t>
+  </si>
+  <si>
+    <t>Participates in the regulation of osmotic pressure changes within the cell</t>
+  </si>
+  <si>
+    <t>biogenesis of c-type cytochromes </t>
   </si>
 </sst>
 </file>
@@ -987,12 +1183,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1013,7 +1215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1023,7 +1225,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1344,10 +1548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DB4C6F-3721-B946-821B-3AABDDACF4FE}">
-  <dimension ref="A1:F166"/>
+  <dimension ref="A1:F164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B163" sqref="B163"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1823,17 +2027,17 @@
       <c r="A27">
         <v>412</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="10">
         <v>0.97</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="9">
         <v>33.590000000000003</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="9" t="s">
+      <c r="E27" s="9"/>
+      <c r="F27" s="11" t="s">
         <v>210</v>
       </c>
     </row>
@@ -1913,7 +2117,7 @@
       <c r="E31" t="s">
         <v>218</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="12" t="s">
         <v>219</v>
       </c>
     </row>
@@ -1933,7 +2137,7 @@
       <c r="E32" t="s">
         <v>218</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="12" t="s">
         <v>219</v>
       </c>
     </row>
@@ -2013,7 +2217,7 @@
       <c r="E36" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="13" t="s">
         <v>223</v>
       </c>
     </row>
@@ -2130,7 +2334,7 @@
       <c r="E42" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F42" s="12" t="s">
+      <c r="F42" s="14" t="s">
         <v>232</v>
       </c>
     </row>
@@ -2150,7 +2354,7 @@
       <c r="E43" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F43" s="12" t="s">
+      <c r="F43" s="14" t="s">
         <v>232</v>
       </c>
     </row>
@@ -2210,7 +2414,7 @@
       <c r="E46" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="F46" s="14" t="s">
+      <c r="F46" s="16" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2230,7 +2434,7 @@
       <c r="E47" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="F47" s="14" t="s">
+      <c r="F47" s="16" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2284,7 +2488,7 @@
       <c r="E50" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="F50" s="15" t="s">
         <v>239</v>
       </c>
     </row>
@@ -2304,11 +2508,11 @@
       <c r="E51" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="F51" s="13" t="s">
+      <c r="F51" s="15" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>763</v>
       </c>
@@ -2321,11 +2525,11 @@
       <c r="D52">
         <v>81.67</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" t="s">
+        <v>263</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>240</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2342,7 +2546,7 @@
         <v>34.44</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -2373,7 +2577,7 @@
         <v>47.21</v>
       </c>
       <c r="F55" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -2389,42 +2593,42 @@
       <c r="D56">
         <v>48</v>
       </c>
-      <c r="F56" s="10" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F56" s="12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="20" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>834</v>
       </c>
       <c r="B57" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C57" s="1">
         <v>0.99</v>
       </c>
       <c r="D57">
-        <v>88.89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+        <v>84.34</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>834</v>
       </c>
       <c r="B58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C58" s="1">
         <v>0.99</v>
       </c>
       <c r="D58">
-        <v>84.34</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>245</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="20" x14ac:dyDescent="0.2">
@@ -2444,7 +2648,7 @@
         <v>228</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -2475,10 +2679,10 @@
         <v>93.27</v>
       </c>
       <c r="E61" t="s">
+        <v>246</v>
+      </c>
+      <c r="F61" t="s">
         <v>247</v>
-      </c>
-      <c r="F61" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="20" x14ac:dyDescent="0.2">
@@ -2501,41 +2705,41 @@
         <v>237</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="20" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>911</v>
       </c>
       <c r="B63" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C63" s="1">
         <v>0.99</v>
       </c>
       <c r="D63">
-        <v>75.22</v>
-      </c>
-      <c r="E63" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+        <v>56.64</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="F63" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>911</v>
       </c>
       <c r="B64" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C64" s="1">
         <v>0.99</v>
       </c>
       <c r="D64">
-        <v>56.64</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="F64" t="s">
-        <v>247</v>
+        <v>75.22</v>
+      </c>
+      <c r="E64" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -2552,7 +2756,7 @@
         <v>58.68</v>
       </c>
       <c r="E65" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -2569,10 +2773,10 @@
         <v>70.47</v>
       </c>
       <c r="E66" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F66" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -2589,10 +2793,10 @@
         <v>34.58</v>
       </c>
       <c r="E67" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F67" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -2609,10 +2813,10 @@
         <v>68.97</v>
       </c>
       <c r="E68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -2629,10 +2833,10 @@
         <v>68.97</v>
       </c>
       <c r="E69" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F69" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -2649,10 +2853,10 @@
         <v>40.31</v>
       </c>
       <c r="E70" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="F70" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -2669,10 +2873,10 @@
         <v>34.619999999999997</v>
       </c>
       <c r="E71" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="F71" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -2689,10 +2893,10 @@
         <v>34.15</v>
       </c>
       <c r="E72" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="F72" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -2709,10 +2913,10 @@
         <v>77.650000000000006</v>
       </c>
       <c r="E73" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="F73" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -2729,10 +2933,10 @@
         <v>54.49</v>
       </c>
       <c r="E74" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="F74" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -2749,10 +2953,10 @@
         <v>31.5</v>
       </c>
       <c r="E75" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="F75" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -2828,7 +3032,7 @@
         <v>225</v>
       </c>
       <c r="F80" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -2848,7 +3052,7 @@
         <v>225</v>
       </c>
       <c r="F81" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="20" x14ac:dyDescent="0.2">
@@ -2867,8 +3071,8 @@
       <c r="E82" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="F82" s="15" t="s">
-        <v>255</v>
+      <c r="F82" s="17" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -2901,8 +3105,11 @@
       <c r="D84">
         <v>92.5</v>
       </c>
+      <c r="E84" t="s">
+        <v>264</v>
+      </c>
       <c r="F84" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -2918,8 +3125,11 @@
       <c r="D85">
         <v>92.5</v>
       </c>
+      <c r="E85" t="s">
+        <v>264</v>
+      </c>
       <c r="F85" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -2935,8 +3145,11 @@
       <c r="D86">
         <v>81.25</v>
       </c>
+      <c r="E86" t="s">
+        <v>264</v>
+      </c>
       <c r="F86" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -2956,7 +3169,7 @@
         <v>225</v>
       </c>
       <c r="F87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -2976,7 +3189,7 @@
         <v>225</v>
       </c>
       <c r="F88" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -2996,7 +3209,7 @@
         <v>225</v>
       </c>
       <c r="F89" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -3012,6 +3225,9 @@
       <c r="D90">
         <v>78.099999999999994</v>
       </c>
+      <c r="E90" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
@@ -3040,6 +3256,9 @@
       <c r="D92">
         <v>84.55</v>
       </c>
+      <c r="E92" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
@@ -3068,6 +3287,9 @@
       <c r="D94">
         <v>47.96</v>
       </c>
+      <c r="E94" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
@@ -3082,6 +3304,9 @@
       <c r="D95">
         <v>45.92</v>
       </c>
+      <c r="E95" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="96" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A96">
@@ -3097,7 +3322,7 @@
         <v>78.180000000000007</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -3127,6 +3352,9 @@
       <c r="D98">
         <v>77.010000000000005</v>
       </c>
+      <c r="F98" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
@@ -3141,6 +3369,12 @@
       <c r="D99">
         <v>83.9</v>
       </c>
+      <c r="E99" t="s">
+        <v>210</v>
+      </c>
+      <c r="F99" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A100">
@@ -3155,8 +3389,11 @@
       <c r="D100">
         <v>87.23</v>
       </c>
+      <c r="E100" t="s">
+        <v>210</v>
+      </c>
       <c r="F100" s="4" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -3186,6 +3423,12 @@
       <c r="D102">
         <v>79.41</v>
       </c>
+      <c r="E102" t="s">
+        <v>210</v>
+      </c>
+      <c r="F102" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103">
@@ -3214,6 +3457,12 @@
       <c r="D104">
         <v>59.65</v>
       </c>
+      <c r="E104" t="s">
+        <v>238</v>
+      </c>
+      <c r="F104" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105">
@@ -3228,6 +3477,12 @@
       <c r="D105">
         <v>53.04</v>
       </c>
+      <c r="E105" t="s">
+        <v>238</v>
+      </c>
+      <c r="F105" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106">
@@ -3242,6 +3497,12 @@
       <c r="D106">
         <v>70</v>
       </c>
+      <c r="E106" t="s">
+        <v>238</v>
+      </c>
+      <c r="F106" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107">
@@ -3256,61 +3517,91 @@
       <c r="D107">
         <v>77.38</v>
       </c>
+      <c r="E107" t="s">
+        <v>238</v>
+      </c>
+      <c r="F107" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>1363</v>
+        <v>1417</v>
       </c>
       <c r="B108" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C108" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="D108">
+        <v>85.23</v>
+      </c>
+      <c r="E108" t="s">
+        <v>263</v>
+      </c>
+      <c r="F108" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>1435</v>
+      </c>
+      <c r="B109" t="s">
+        <v>145</v>
+      </c>
+      <c r="C109" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="D109">
+        <v>85.12</v>
+      </c>
+      <c r="E109" t="s">
+        <v>210</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>1459</v>
+      </c>
+      <c r="B110" t="s">
+        <v>146</v>
+      </c>
+      <c r="C110" s="1">
         <v>0.96</v>
       </c>
-      <c r="D108">
-        <v>92.68</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>1417</v>
-      </c>
-      <c r="B109" t="s">
-        <v>144</v>
-      </c>
-      <c r="C109" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="D109">
-        <v>85.23</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>1435</v>
-      </c>
-      <c r="B110" t="s">
-        <v>145</v>
-      </c>
-      <c r="C110" s="1">
+      <c r="D110">
+        <v>86.98</v>
+      </c>
+      <c r="E110" t="s">
+        <v>263</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>1467</v>
+      </c>
+      <c r="B111" t="s">
+        <v>147</v>
+      </c>
+      <c r="C111" s="1">
         <v>0.98</v>
       </c>
-      <c r="D110">
-        <v>85.12</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>1459</v>
-      </c>
-      <c r="B111" t="s">
-        <v>146</v>
-      </c>
-      <c r="C111" s="1">
-        <v>0.96</v>
-      </c>
       <c r="D111">
-        <v>86.98</v>
+        <v>38.450000000000003</v>
+      </c>
+      <c r="E111" t="s">
+        <v>225</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -3327,21 +3618,27 @@
         <v>76.48</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="B113" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C113" s="1">
         <v>0.98</v>
       </c>
       <c r="D113">
-        <v>38.450000000000003</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+        <v>40.78</v>
+      </c>
+      <c r="E113" t="s">
+        <v>210</v>
+      </c>
+      <c r="F113" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1468</v>
       </c>
@@ -3355,91 +3652,112 @@
         <v>68.02</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="B115" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C115" s="1">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="D115">
-        <v>40.78</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+        <v>60.32</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1469</v>
       </c>
       <c r="B116" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C116" s="1">
         <v>0.99</v>
       </c>
       <c r="D116">
-        <v>60.32</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+        <v>33.33</v>
+      </c>
+      <c r="F116" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="B117" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C117" s="1">
-        <v>0.99</v>
+        <v>0.94</v>
       </c>
       <c r="D117">
-        <v>33.33</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+        <v>78.260000000000005</v>
+      </c>
+      <c r="E117" t="s">
+        <v>210</v>
+      </c>
+      <c r="F117" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>1471</v>
+        <v>1493</v>
       </c>
       <c r="B118" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C118" s="1">
-        <v>0.94</v>
+        <v>0.36</v>
       </c>
       <c r="D118">
-        <v>78.260000000000005</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+        <v>41.67</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>1493</v>
+        <v>1562</v>
       </c>
       <c r="B119" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C119" s="1">
-        <v>0.36</v>
+        <v>0.6</v>
       </c>
       <c r="D119">
-        <v>41.67</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57.97</v>
+      </c>
+      <c r="E119" t="s">
+        <v>210</v>
+      </c>
+      <c r="F119" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>1562</v>
+        <v>1585</v>
       </c>
       <c r="B120" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="C120" s="1">
-        <v>0.6</v>
+        <v>0.84</v>
       </c>
       <c r="D120">
-        <v>57.97</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+        <v>46.51</v>
+      </c>
+      <c r="E120" t="s">
+        <v>225</v>
+      </c>
+      <c r="F120" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>1585</v>
       </c>
@@ -3453,659 +3771,757 @@
         <v>45</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>1585</v>
+        <v>1639</v>
       </c>
       <c r="B122" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="C122" s="1">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="D122">
-        <v>46.51</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44.68</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1639</v>
       </c>
       <c r="B123" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C123" s="1">
-        <v>0.89</v>
+        <v>0.94</v>
       </c>
       <c r="D123">
-        <v>44.68</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+        <v>35.85</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>1639</v>
+        <v>1642</v>
       </c>
       <c r="B124" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C124" s="1">
-        <v>0.94</v>
+        <v>0.96</v>
       </c>
       <c r="D124">
-        <v>35.85</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+        <v>93.39</v>
+      </c>
+      <c r="E124" t="s">
+        <v>279</v>
+      </c>
+      <c r="F124" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>1642</v>
+        <v>1685</v>
       </c>
       <c r="B125" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C125" s="1">
-        <v>0.96</v>
+        <v>0.73</v>
       </c>
       <c r="D125">
-        <v>93.39</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+        <v>39.770000000000003</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>1685</v>
       </c>
       <c r="B126" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C126" s="1">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="D126">
-        <v>39.770000000000003</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="B127" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C127" s="1">
-        <v>0.92</v>
+        <v>0.74</v>
       </c>
       <c r="D127">
-        <v>33.9</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+        <v>34.83</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>1686</v>
+        <v>1720</v>
       </c>
       <c r="B128" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C128" s="1">
-        <v>0.74</v>
+        <v>0.98</v>
       </c>
       <c r="D128">
-        <v>34.83</v>
+        <v>68.3</v>
+      </c>
+      <c r="E128" t="s">
+        <v>281</v>
+      </c>
+      <c r="F128" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>1706</v>
+        <v>1720</v>
       </c>
       <c r="B129" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C129" s="1">
         <v>0.99</v>
       </c>
       <c r="D129">
-        <v>56.69</v>
+        <v>49.07</v>
+      </c>
+      <c r="E129" t="s">
+        <v>281</v>
+      </c>
+      <c r="F129" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>1720</v>
+        <v>1733</v>
       </c>
       <c r="B130" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C130" s="1">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="D130">
-        <v>68.3</v>
+        <v>62.39</v>
+      </c>
+      <c r="E130" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>1720</v>
+        <v>1755</v>
       </c>
       <c r="B131" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C131" s="1">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="D131">
-        <v>49.07</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+        <v>65.290000000000006</v>
+      </c>
+      <c r="E131" t="s">
+        <v>225</v>
+      </c>
+      <c r="F131" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>1733</v>
+        <v>1774</v>
       </c>
       <c r="B132" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C132" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="D132">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="E132" t="s">
+        <v>284</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>1774</v>
+      </c>
+      <c r="B133" t="s">
+        <v>169</v>
+      </c>
+      <c r="C133" s="1">
         <v>0.97</v>
       </c>
-      <c r="D132">
-        <v>62.39</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133">
-        <v>1755</v>
-      </c>
-      <c r="B133" t="s">
-        <v>167</v>
-      </c>
-      <c r="C133" s="1">
-        <v>0.98</v>
-      </c>
       <c r="D133">
-        <v>65.290000000000006</v>
+        <v>68.78</v>
+      </c>
+      <c r="E133" t="s">
+        <v>284</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>1774</v>
+        <v>1788</v>
       </c>
       <c r="B134" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="C134" s="1">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="D134">
-        <v>77.599999999999994</v>
+        <v>75.16</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>1774</v>
+        <v>1858</v>
       </c>
       <c r="B135" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C135" s="1">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="D135">
-        <v>68.78</v>
+        <v>85.26</v>
+      </c>
+      <c r="E135" t="s">
+        <v>263</v>
+      </c>
+      <c r="F135" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>1788</v>
+        <v>1858</v>
       </c>
       <c r="B136" t="s">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="C136" s="1">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="D136">
-        <v>75.16</v>
+        <v>70.13</v>
+      </c>
+      <c r="E136" t="s">
+        <v>263</v>
+      </c>
+      <c r="F136" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>1858</v>
+        <v>1874</v>
       </c>
       <c r="B137" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C137" s="1">
-        <v>0.99</v>
+        <v>0.45</v>
       </c>
       <c r="D137">
-        <v>85.26</v>
-      </c>
-      <c r="F137" t="s">
-        <v>260</v>
+        <v>41.67</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>1858</v>
+        <v>1900</v>
       </c>
       <c r="B138" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C138" s="1">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="D138">
-        <v>70.13</v>
-      </c>
-      <c r="F138" t="s">
-        <v>260</v>
+        <v>59.81</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>1874</v>
+        <v>1946</v>
       </c>
       <c r="B139" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C139" s="1">
-        <v>0.45</v>
+        <v>0.97</v>
       </c>
       <c r="D139">
-        <v>41.67</v>
+        <v>71.94</v>
+      </c>
+      <c r="E139" t="s">
+        <v>225</v>
+      </c>
+      <c r="F139" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>1900</v>
+        <v>1947</v>
       </c>
       <c r="B140" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C140" s="1">
-        <v>0.96</v>
+        <v>0.84</v>
       </c>
       <c r="D140">
-        <v>59.81</v>
+        <v>85.96</v>
+      </c>
+      <c r="E140" t="s">
+        <v>225</v>
+      </c>
+      <c r="F140" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>1946</v>
+        <v>1951</v>
       </c>
       <c r="B141" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C141" s="1">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="D141">
-        <v>71.94</v>
+        <v>79.099999999999994</v>
+      </c>
+      <c r="E141" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>1947</v>
+        <v>1951</v>
       </c>
       <c r="B142" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C142" s="1">
-        <v>0.84</v>
+        <v>0.99</v>
       </c>
       <c r="D142">
-        <v>85.96</v>
+        <v>70.62</v>
+      </c>
+      <c r="E142" t="s">
+        <v>285</v>
+      </c>
+      <c r="F142" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>1951</v>
+        <v>1960</v>
       </c>
       <c r="B143" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C143" s="1">
         <v>0.99</v>
       </c>
       <c r="D143">
-        <v>79.099999999999994</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+        <v>67.16</v>
+      </c>
+      <c r="E143" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>1951</v>
+        <v>1967</v>
       </c>
       <c r="B144" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C144" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="D144">
+        <v>95.38</v>
+      </c>
+      <c r="E144" t="s">
+        <v>284</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="7">
+        <v>1993</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C145" s="8">
+        <v>0.38</v>
+      </c>
+      <c r="D145" s="7">
+        <v>37.21</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F145" s="7"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>1993</v>
+      </c>
+      <c r="B146" t="s">
+        <v>180</v>
+      </c>
+      <c r="C146" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D146">
+        <v>31.51</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>2006</v>
+      </c>
+      <c r="B147" t="s">
+        <v>182</v>
+      </c>
+      <c r="C147" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="D147">
+        <v>95.52</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>2012</v>
+      </c>
+      <c r="B148" t="s">
+        <v>183</v>
+      </c>
+      <c r="C148" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="D148">
+        <v>62.83</v>
+      </c>
+      <c r="E148" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>2033</v>
+      </c>
+      <c r="B149" t="s">
+        <v>184</v>
+      </c>
+      <c r="C149" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="D149">
+        <v>69.72</v>
+      </c>
+      <c r="F149" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>2093</v>
+      </c>
+      <c r="B150" t="s">
+        <v>185</v>
+      </c>
+      <c r="C150" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="D150">
+        <v>36.630000000000003</v>
+      </c>
+      <c r="E150" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>2094</v>
+      </c>
+      <c r="B151" t="s">
+        <v>186</v>
+      </c>
+      <c r="C151" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="D151">
+        <v>38.68</v>
+      </c>
+      <c r="E151" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>2142</v>
+      </c>
+      <c r="B152" t="s">
+        <v>188</v>
+      </c>
+      <c r="C152" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="D152">
+        <v>73.38</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>2142</v>
+      </c>
+      <c r="B153" t="s">
+        <v>189</v>
+      </c>
+      <c r="C153" s="1">
         <v>0.99</v>
       </c>
-      <c r="D144">
-        <v>70.62</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145">
-        <v>1960</v>
-      </c>
-      <c r="B145" t="s">
-        <v>177</v>
-      </c>
-      <c r="C145" s="1">
+      <c r="D153">
+        <v>68.31</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>2162</v>
+      </c>
+      <c r="B154" t="s">
+        <v>190</v>
+      </c>
+      <c r="C154" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="D154">
+        <v>35.369999999999997</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>2232</v>
+      </c>
+      <c r="B155" t="s">
+        <v>191</v>
+      </c>
+      <c r="C155" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="D155">
+        <v>76</v>
+      </c>
+      <c r="E155" t="s">
+        <v>294</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>2233</v>
+      </c>
+      <c r="B156" t="s">
+        <v>191</v>
+      </c>
+      <c r="C156" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="D156">
+        <v>80.2</v>
+      </c>
+      <c r="E156" t="s">
+        <v>294</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>2244</v>
+      </c>
+      <c r="B157" t="s">
+        <v>192</v>
+      </c>
+      <c r="C157" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="D157">
+        <v>89.25</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>2274</v>
+      </c>
+      <c r="B158" t="s">
+        <v>193</v>
+      </c>
+      <c r="C158" s="1">
         <v>0.99</v>
       </c>
-      <c r="D145">
-        <v>67.16</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146">
-        <v>1967</v>
-      </c>
-      <c r="B146" t="s">
-        <v>179</v>
-      </c>
-      <c r="C146" s="1">
-        <v>0.87</v>
-      </c>
-      <c r="D146">
-        <v>95.38</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147">
-        <v>1993</v>
-      </c>
-      <c r="B147" t="s">
-        <v>180</v>
-      </c>
-      <c r="C147" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="D147">
-        <v>31.51</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148">
-        <v>1993</v>
-      </c>
-      <c r="B148" t="s">
-        <v>181</v>
-      </c>
-      <c r="C148" s="1">
-        <v>0.38</v>
-      </c>
-      <c r="D148">
-        <v>37.21</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149">
-        <v>2006</v>
-      </c>
-      <c r="B149" t="s">
-        <v>182</v>
-      </c>
-      <c r="C149" s="1">
-        <v>0.82</v>
-      </c>
-      <c r="D149">
-        <v>95.52</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150">
-        <v>2012</v>
-      </c>
-      <c r="B150" t="s">
-        <v>183</v>
-      </c>
-      <c r="C150" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="D150">
-        <v>62.83</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151">
-        <v>2033</v>
-      </c>
-      <c r="B151" t="s">
-        <v>184</v>
-      </c>
-      <c r="C151" s="1">
-        <v>0.93</v>
-      </c>
-      <c r="D151">
-        <v>69.72</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152">
-        <v>2093</v>
-      </c>
-      <c r="B152" t="s">
-        <v>185</v>
-      </c>
-      <c r="C152" s="1">
-        <v>0.93</v>
-      </c>
-      <c r="D152">
-        <v>36.630000000000003</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153">
-        <v>2094</v>
-      </c>
-      <c r="B153" t="s">
-        <v>186</v>
-      </c>
-      <c r="C153" s="1">
-        <v>0.96</v>
-      </c>
-      <c r="D153">
-        <v>38.68</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154">
-        <v>2142</v>
-      </c>
-      <c r="B154" t="s">
-        <v>188</v>
-      </c>
-      <c r="C154" s="1">
+      <c r="D158">
+        <v>70.150000000000006</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>2274</v>
+      </c>
+      <c r="B159" t="s">
+        <v>194</v>
+      </c>
+      <c r="C159" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="D159">
+        <v>69.849999999999994</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>2349</v>
+      </c>
+      <c r="B160" t="s">
+        <v>200</v>
+      </c>
+      <c r="C160" s="1">
         <v>0.97</v>
       </c>
-      <c r="D154">
-        <v>73.38</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155">
-        <v>2142</v>
-      </c>
-      <c r="B155" t="s">
-        <v>189</v>
-      </c>
-      <c r="C155" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="D155">
-        <v>68.31</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156">
-        <v>2162</v>
-      </c>
-      <c r="B156" t="s">
-        <v>190</v>
-      </c>
-      <c r="C156" s="1">
-        <v>0.79</v>
-      </c>
-      <c r="D156">
-        <v>35.369999999999997</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157">
-        <v>2232</v>
-      </c>
-      <c r="B157" t="s">
-        <v>191</v>
-      </c>
-      <c r="C157" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="D157">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158">
-        <v>2233</v>
-      </c>
-      <c r="B158" t="s">
-        <v>191</v>
-      </c>
-      <c r="C158" s="1">
-        <v>0.91</v>
-      </c>
-      <c r="D158">
-        <v>80.2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159">
-        <v>2244</v>
-      </c>
-      <c r="B159" t="s">
-        <v>192</v>
-      </c>
-      <c r="C159" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="D159">
-        <v>89.25</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160">
-        <v>2274</v>
-      </c>
-      <c r="B160" t="s">
-        <v>193</v>
-      </c>
-      <c r="C160" s="1">
-        <v>0.99</v>
-      </c>
       <c r="D160">
-        <v>70.150000000000006</v>
+        <v>78.87</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>2274</v>
+        <v>2381</v>
       </c>
       <c r="B161" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C161" s="1">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="D161">
-        <v>69.849999999999994</v>
+        <v>75.45</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>2349</v>
+        <v>2388</v>
       </c>
       <c r="B162" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C162" s="1">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="D162">
-        <v>78.87</v>
+        <v>42.96</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>2381</v>
+        <v>2388</v>
       </c>
       <c r="B163" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C163" s="1">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="D163">
-        <v>75.45</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>38.270000000000003</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>2388</v>
+        <v>2400</v>
       </c>
       <c r="B164" t="s">
-        <v>202</v>
+        <v>106</v>
       </c>
       <c r="C164" s="1">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="D164">
-        <v>42.96</v>
-      </c>
-      <c r="F164" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165">
-        <v>2388</v>
-      </c>
-      <c r="B165" t="s">
-        <v>203</v>
-      </c>
-      <c r="C165" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D165">
-        <v>38.270000000000003</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166">
-        <v>2400</v>
-      </c>
-      <c r="B166" t="s">
-        <v>106</v>
-      </c>
-      <c r="C166" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="D166">
         <v>67.59</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{DDFF2116-720B-F046-B05F-CAC11D874EC2}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F164">
+      <sortCondition ref="A1:A164"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F662C7-024F-6E4C-9E67-BD86EA4B6E15}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951DD6DE-4A78-F444-93C9-81BF586731A3}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:E50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4969,7 +5385,53 @@
         <v>18</v>
       </c>
     </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1363</v>
+      </c>
+      <c r="B51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="D51">
+        <v>92.68</v>
+      </c>
+      <c r="E51" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1706</v>
+      </c>
+      <c r="B52" t="s">
+        <v>163</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="D52">
+        <v>56.69</v>
+      </c>
+      <c r="E52" t="s">
+        <v>279</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C29F41-7D0A-A64D-8B2D-8071D7116E4A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>